--- a/resources/G3EI1/Notes.xlsx
+++ b/resources/G3EI1/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2DBFC69-A3FA-4B11-803F-50A89982A471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D6B82-7AD4-47F7-A952-4D38482E56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6B9FE16B-165E-4A2F-ADC3-314C27DD5E2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B9FE16B-165E-4A2F-ADC3-314C27DD5E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -63,15 +61,6 @@
     <t>Note_G3EI116</t>
   </si>
   <si>
-    <t>Note_G3EI121</t>
-  </si>
-  <si>
-    <t>Note_G3EI122</t>
-  </si>
-  <si>
-    <t>Note_G3EI123</t>
-  </si>
-  <si>
     <t>G3EI1_FN1</t>
   </si>
   <si>
@@ -130,16 +119,31 @@
   </si>
   <si>
     <t>G3EI1_LN10</t>
+  </si>
+  <si>
+    <t>Note_G3EI117</t>
+  </si>
+  <si>
+    <t>Note_G3EI118</t>
+  </si>
+  <si>
+    <t>Note_G3EI119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,20 +504,20 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -534,24 +538,24 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>19000041</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>11</v>
@@ -581,15 +585,15 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>19000041</v>
+        <v>19000042</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>16.5</v>
@@ -619,15 +623,15 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>19000041</v>
+        <v>19000043</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>18.649999999999999</v>
@@ -657,15 +661,15 @@
         <v>9.73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>19000041</v>
+        <v>19000044</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>9</v>
@@ -695,15 +699,15 @@
         <v>13.34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>19000041</v>
+        <v>19000045</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>13.89</v>
@@ -733,15 +737,15 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>19000041</v>
+        <v>19000046</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -771,15 +775,15 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>19000041</v>
+        <v>19000047</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>8.5</v>
@@ -809,15 +813,15 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>19000041</v>
+        <v>19000048</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -847,15 +851,15 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>19000041</v>
+        <v>19000049</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>12</v>
@@ -885,15 +889,15 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>19000041</v>
+        <v>19000050</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>12</v>
@@ -924,6 +928,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/G3EI1/Notes.xlsx
+++ b/resources/G3EI1/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D6B82-7AD4-47F7-A952-4D38482E56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F24F57-5FEE-45BC-9B22-AD5DFF021769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B9FE16B-165E-4A2F-ADC3-314C27DD5E2C}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>19000041</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>11</v>
@@ -590,10 +590,10 @@
         <v>19000042</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>16.5</v>
@@ -628,10 +628,10 @@
         <v>19000043</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>18.649999999999999</v>
@@ -666,10 +666,10 @@
         <v>19000044</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>9</v>
@@ -704,10 +704,10 @@
         <v>19000045</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>13.89</v>
@@ -742,10 +742,10 @@
         <v>19000046</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -780,10 +780,10 @@
         <v>19000047</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>8.5</v>
@@ -818,10 +818,10 @@
         <v>19000048</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -856,10 +856,10 @@
         <v>19000049</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>12</v>
@@ -894,10 +894,10 @@
         <v>19000050</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>12</v>

--- a/resources/G3EI1/Notes.xlsx
+++ b/resources/G3EI1/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A10F7BD-F357-4DB2-BB6C-0DF6D8749A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B73A5-5B2C-4042-9197-F749B92457B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B9FE16B-165E-4A2F-ADC3-314C27DD5E2C}"/>
   </bookViews>
@@ -43,33 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Note_G3EI111</t>
-  </si>
-  <si>
-    <t>Note_G3EI112</t>
-  </si>
-  <si>
-    <t>Note_G3EI113</t>
-  </si>
-  <si>
-    <t>Note_G3EI114</t>
-  </si>
-  <si>
-    <t>Note_G3EI115</t>
-  </si>
-  <si>
-    <t>Note_G3EI116</t>
-  </si>
-  <si>
-    <t>Note_G3EI117</t>
-  </si>
-  <si>
-    <t>Note_G3EI118</t>
-  </si>
-  <si>
-    <t>Note_G3EI119</t>
-  </si>
-  <si>
     <t>John Barrett</t>
   </si>
   <si>
@@ -368,6 +341,33 @@
   </si>
   <si>
     <t>Athena Cline</t>
+  </si>
+  <si>
+    <t>Note_G3EI11</t>
+  </si>
+  <si>
+    <t>Note_G3EI12</t>
+  </si>
+  <si>
+    <t>Note_G3EI13</t>
+  </si>
+  <si>
+    <t>Note_G3EI14</t>
+  </si>
+  <si>
+    <t>Note_G3EI15</t>
+  </si>
+  <si>
+    <t>Note_G3EI16</t>
+  </si>
+  <si>
+    <t>Note_G3EI17</t>
+  </si>
+  <si>
+    <t>Note_G3EI18</t>
+  </si>
+  <si>
+    <t>Note_G3EI19</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,31 +760,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -792,10 +792,10 @@
         <v>19000201</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -831,10 +831,10 @@
         <v>19000202</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -870,10 +870,10 @@
         <v>19000203</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -909,10 +909,10 @@
         <v>19000204</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -948,10 +948,10 @@
         <v>19000205</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -987,10 +987,10 @@
         <v>19000206</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1026,10 +1026,10 @@
         <v>19000207</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>19</v>
@@ -1065,10 +1065,10 @@
         <v>19000208</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1104,10 +1104,10 @@
         <v>19000209</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -1143,10 +1143,10 @@
         <v>19000210</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1182,10 +1182,10 @@
         <v>19000211</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>17</v>
@@ -1221,10 +1221,10 @@
         <v>19000212</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1260,10 +1260,10 @@
         <v>19000213</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1299,10 +1299,10 @@
         <v>19000214</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1338,10 +1338,10 @@
         <v>19000215</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>19</v>
@@ -1377,10 +1377,10 @@
         <v>19000216</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -1416,10 +1416,10 @@
         <v>19000217</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1455,10 +1455,10 @@
         <v>19000218</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1494,10 +1494,10 @@
         <v>19000219</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -1533,10 +1533,10 @@
         <v>19000220</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -1572,10 +1572,10 @@
         <v>19000221</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1611,10 +1611,10 @@
         <v>19000222</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -1650,10 +1650,10 @@
         <v>19000223</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -1689,10 +1689,10 @@
         <v>19000224</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -1728,10 +1728,10 @@
         <v>19000225</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>13</v>
@@ -1767,10 +1767,10 @@
         <v>19000226</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -1806,10 +1806,10 @@
         <v>19000227</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>18</v>
@@ -1845,10 +1845,10 @@
         <v>19000228</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>19</v>
@@ -1884,10 +1884,10 @@
         <v>19000229</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>17</v>
@@ -1923,10 +1923,10 @@
         <v>19000230</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -1962,10 +1962,10 @@
         <v>19000231</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>18</v>
@@ -2001,10 +2001,10 @@
         <v>19000232</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <v>15</v>
@@ -2040,10 +2040,10 @@
         <v>19000233</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -2079,10 +2079,10 @@
         <v>19000234</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -2118,10 +2118,10 @@
         <v>19000235</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <v>19</v>
@@ -2157,10 +2157,10 @@
         <v>19000236</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>14</v>
@@ -2196,10 +2196,10 @@
         <v>19000237</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>14</v>
@@ -2235,10 +2235,10 @@
         <v>19000238</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D39">
         <v>13</v>
@@ -2274,10 +2274,10 @@
         <v>19000239</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -2313,10 +2313,10 @@
         <v>19000240</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>14</v>
@@ -2352,10 +2352,10 @@
         <v>19000241</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -2391,10 +2391,10 @@
         <v>19000242</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D43">
         <v>14</v>
@@ -2430,10 +2430,10 @@
         <v>19000243</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -2469,10 +2469,10 @@
         <v>19000244</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <v>13</v>
@@ -2508,10 +2508,10 @@
         <v>19000245</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -2547,10 +2547,10 @@
         <v>19000246</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -2586,10 +2586,10 @@
         <v>19000247</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D48">
         <v>9</v>
@@ -2625,10 +2625,10 @@
         <v>19000248</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -2664,10 +2664,10 @@
         <v>19000249</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -2703,10 +2703,10 @@
         <v>19000250</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <v>13</v>
